--- a/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Slot</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Slot|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -460,6 +460,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-slot|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Slot.meta.security</t>
   </si>
   <si>
@@ -672,7 +675,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -831,7 +834,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.2.0-ballot</t>
   </si>
   <si>
     <t>Slot.appointmentType</t>
@@ -843,13 +846,13 @@
     <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
   </si>
   <si>
     <t>Slot.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -868,7 +871,7 @@
     <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/slotstatus</t>
+    <t>http://hl7.org/fhir/ValueSet/slotstatus|4.0.1</t>
   </si>
   <si>
     <t>FREEBUSY;FBTYPE=(freeBusyType):19980314T233000Z/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
@@ -1255,7 +1258,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1270,7 +1273,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2447,7 +2450,7 @@
         <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>77</v>
@@ -2512,10 +2515,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2538,16 +2541,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2573,13 +2576,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2597,7 +2600,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2623,10 +2626,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2649,16 +2652,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2684,13 +2687,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2708,7 +2711,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2734,10 +2737,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2763,13 +2766,13 @@
         <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2819,7 +2822,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2845,10 +2848,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2871,16 +2874,16 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2906,13 +2909,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -2930,7 +2933,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2956,14 +2959,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2982,16 +2985,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3041,7 +3044,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3056,7 +3059,7 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3067,14 +3070,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3093,16 +3096,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3152,7 +3155,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3167,7 +3170,7 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3178,10 +3181,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3210,7 +3213,7 @@
         <v>108</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>110</v>
@@ -3263,7 +3266,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3278,7 +3281,7 @@
         <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -3289,10 +3292,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3318,16 +3321,16 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3376,7 +3379,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3391,7 +3394,7 @@
         <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3402,10 +3405,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3428,13 +3431,13 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3485,7 +3488,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3506,15 +3509,15 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3620,10 +3623,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3731,10 +3734,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3757,19 +3760,19 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3794,11 +3797,11 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -3816,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3831,7 +3834,7 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -3842,10 +3845,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3868,19 +3871,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3905,13 +3908,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3929,7 +3932,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3944,7 +3947,7 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -3955,10 +3958,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3984,16 +3987,16 @@
         <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4006,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>77</v>
@@ -4042,7 +4045,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4057,7 +4060,7 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4068,10 +4071,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4097,13 +4100,13 @@
         <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4117,7 +4120,7 @@
         <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4153,7 +4156,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4168,7 +4171,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4179,10 +4182,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4205,13 +4208,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4262,7 +4265,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4277,7 +4280,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4314,16 +4317,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4373,7 +4376,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4388,7 +4391,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4399,10 +4402,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4425,13 +4428,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4458,11 +4461,11 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4480,7 +4483,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4501,15 +4504,15 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4532,13 +4535,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4565,11 +4568,11 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4587,7 +4590,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4608,15 +4611,15 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4639,13 +4642,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4672,11 +4675,11 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -4694,7 +4697,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4715,15 +4718,15 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4746,13 +4749,13 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4779,11 +4782,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4801,7 +4804,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4822,15 +4825,15 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4853,13 +4856,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4910,7 +4913,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -4936,10 +4939,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4962,13 +4965,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4995,11 +4998,11 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5017,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5035,7 +5038,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5043,10 +5046,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5072,10 +5075,10 @@
         <v>122</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5126,7 +5129,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5144,18 +5147,18 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5181,10 +5184,10 @@
         <v>122</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5235,7 +5238,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -5253,18 +5256,18 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5287,13 +5290,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5301,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>77</v>
@@ -5346,7 +5349,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5372,10 +5375,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5401,10 +5404,10 @@
         <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5455,7 +5458,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
